--- a/Сложность алгоритма.xlsx
+++ b/Сложность алгоритма.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\study\Работа\С++\Моё\1Первая глава\123\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F027A7-B9A8-4F65-94DF-CC244F750BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23898C4D-5BEF-47D1-AA67-307A52C1BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{B5BE6066-1036-4F11-8D5B-A488B3E43E95}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{B5BE6066-1036-4F11-8D5B-A488B3E43E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Асимптотики" sheetId="1" r:id="rId1"/>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CF9C2C-34D6-45F4-97C3-91C52F991421}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.6640625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF2AAEC-C4A9-4F53-8091-42D50CC2E5CD}">
   <dimension ref="A2:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>

--- a/Сложность алгоритма.xlsx
+++ b/Сложность алгоритма.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\study\Работа\С++\Моё\1Первая глава\123\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23898C4D-5BEF-47D1-AA67-307A52C1BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C7091D-CC70-4CDD-9954-3D5074D80709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{B5BE6066-1036-4F11-8D5B-A488B3E43E95}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{B5BE6066-1036-4F11-8D5B-A488B3E43E95}"/>
   </bookViews>
   <sheets>
     <sheet name="Асимптотики" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>vector&lt;T&gt;</t>
   </si>
@@ -101,13 +101,19 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +186,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -237,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,6 +268,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,6 +508,73 @@
         <a:xfrm rot="10800000">
           <a:off x="1546860" y="1188720"/>
           <a:ext cx="3535680" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289561</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518161</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Стрелка: изогнутая вниз 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1077872-5C7E-4294-8E53-8F3319270BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9231615">
+          <a:off x="289561" y="1508760"/>
+          <a:ext cx="1447800" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="curvedDownArrow">
           <a:avLst/>
@@ -834,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CF9C2C-34D6-45F4-97C3-91C52F991421}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.6640625" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -933,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF2AAEC-C4A9-4F53-8091-42D50CC2E5CD}">
   <dimension ref="A2:AB19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:R3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1030,8 +1112,12 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="C3" s="15"/>
-      <c r="E3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="E3" s="10">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="4" t="s">
@@ -1052,8 +1138,12 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="10"/>
-      <c r="AA3" s="10"/>
+      <c r="V3" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C4" s="14" t="s">
@@ -1073,6 +1163,16 @@
       </c>
       <c r="AA4" s="11" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="V7" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
